--- a/Excel-Sales-Template.xlsx
+++ b/Excel-Sales-Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="6420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -13382,7 +13382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -13581,7 +13581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
